--- a/Instances/11_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
+++ b/Instances/11_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -15246,13 +15246,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>58.392</v>
       </c>
       <c r="E2" t="n">
-        <v>44.28960000000001</v>
+        <v>29.5264</v>
       </c>
       <c r="F2" t="n">
         <v>233.568</v>
@@ -15280,13 +15280,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>59.1516</v>
       </c>
       <c r="E3" t="n">
-        <v>49.45200000000001</v>
+        <v>115.388</v>
       </c>
       <c r="F3" t="n">
         <v>236.6064</v>
@@ -15314,13 +15314,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>50.72</v>
       </c>
       <c r="E4" t="n">
-        <v>48.90000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="F4" t="n">
         <v>202.88</v>
@@ -15348,13 +15348,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>57.986</v>
       </c>
       <c r="E5" t="n">
-        <v>73.532</v>
+        <v>102.9448</v>
       </c>
       <c r="F5" t="n">
         <v>231.944</v>
@@ -15382,7 +15382,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>56.6796</v>
@@ -15416,7 +15416,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>57.2452</v>
@@ -15450,13 +15450,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>0.2888</v>
       </c>
       <c r="E8" t="n">
-        <v>11.552</v>
+        <v>15.0176</v>
       </c>
       <c r="F8" t="n">
         <v>1.1552</v>
@@ -15490,7 +15490,7 @@
         <v>2.1744</v>
       </c>
       <c r="E9" t="n">
-        <v>26.0928</v>
+        <v>39.1392</v>
       </c>
       <c r="F9" t="n">
         <v>8.6976</v>
@@ -15518,13 +15518,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>1.8964</v>
       </c>
       <c r="E10" t="n">
-        <v>30.3424</v>
+        <v>41.7208</v>
       </c>
       <c r="F10" t="n">
         <v>7.5856</v>
@@ -15552,7 +15552,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>1.7072</v>
@@ -15586,7 +15586,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>3.2724</v>
@@ -15620,13 +15620,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>3.1644</v>
       </c>
       <c r="E13" t="n">
-        <v>69.6168</v>
+        <v>107.5896</v>
       </c>
       <c r="F13" t="n">
         <v>12.6576</v>
@@ -15654,13 +15654,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
         <v>8.052</v>
       </c>
       <c r="E14" t="n">
-        <v>273.768</v>
+        <v>354.288</v>
       </c>
       <c r="F14" t="n">
         <v>32.208</v>
@@ -15688,13 +15688,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
         <v>4.0072</v>
       </c>
       <c r="E15" t="n">
-        <v>160.288</v>
+        <v>208.3744</v>
       </c>
       <c r="F15" t="n">
         <v>16.0288</v>
@@ -15722,13 +15722,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
         <v>3.8488</v>
       </c>
       <c r="E16" t="n">
-        <v>153.952</v>
+        <v>200.1376</v>
       </c>
       <c r="F16" t="n">
         <v>15.3952</v>
@@ -15756,13 +15756,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
         <v>4.7056</v>
       </c>
       <c r="E17" t="n">
-        <v>188.224</v>
+        <v>244.6912</v>
       </c>
       <c r="F17" t="n">
         <v>18.8224</v>
@@ -15790,13 +15790,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
         <v>3.9012</v>
       </c>
       <c r="E18" t="n">
-        <v>156.048</v>
+        <v>202.8624</v>
       </c>
       <c r="F18" t="n">
         <v>15.6048</v>
@@ -15824,13 +15824,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
         <v>3.8716</v>
       </c>
       <c r="E19" t="n">
-        <v>154.864</v>
+        <v>201.3232</v>
       </c>
       <c r="F19" t="n">
         <v>15.4864</v>
@@ -15858,13 +15858,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
         <v>16.2652</v>
       </c>
       <c r="E20" t="n">
-        <v>650.6079999999999</v>
+        <v>845.7904</v>
       </c>
       <c r="F20" t="n">
         <v>65.0608</v>
@@ -15960,7 +15960,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>58.67599999999999</v>
@@ -15994,7 +15994,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>59.4336</v>
@@ -16062,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>59.3764</v>
@@ -16130,7 +16130,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>50.9596</v>
@@ -16164,7 +16164,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>50.9764</v>
@@ -16198,7 +16198,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>58.21080000000001</v>
@@ -16232,7 +16232,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>58.21360000000001</v>
@@ -16266,7 +16266,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>58.27160000000001</v>
@@ -16300,7 +16300,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>56.9956</v>
@@ -16368,7 +16368,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>56.9284</v>
@@ -16436,7 +16436,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>57.4712</v>
@@ -16510,7 +16510,7 @@
         <v>0.3172</v>
       </c>
       <c r="E39" t="n">
-        <v>1.136</v>
+        <v>1.4768</v>
       </c>
       <c r="F39" t="n">
         <v>1.2688</v>
@@ -16544,7 +16544,7 @@
         <v>2.2176</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5184</v>
+        <v>0.7776000000000001</v>
       </c>
       <c r="F40" t="n">
         <v>8.8704</v>
@@ -16578,7 +16578,7 @@
         <v>1.9408</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7104</v>
+        <v>0.9768</v>
       </c>
       <c r="F41" t="n">
         <v>7.7632</v>
@@ -16680,7 +16680,7 @@
         <v>3.2136</v>
       </c>
       <c r="E44" t="n">
-        <v>1.0824</v>
+        <v>1.6728</v>
       </c>
       <c r="F44" t="n">
         <v>12.8544</v>
@@ -16714,7 +16714,7 @@
         <v>8.163599999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>3.7944</v>
+        <v>4.9104</v>
       </c>
       <c r="F45" t="n">
         <v>32.6544</v>
@@ -16748,7 +16748,7 @@
         <v>4.1136</v>
       </c>
       <c r="E46" t="n">
-        <v>4.256</v>
+        <v>5.532800000000001</v>
       </c>
       <c r="F46" t="n">
         <v>16.4544</v>
@@ -16782,7 +16782,7 @@
         <v>3.8792</v>
       </c>
       <c r="E47" t="n">
-        <v>1.216</v>
+        <v>1.5808</v>
       </c>
       <c r="F47" t="n">
         <v>15.5168</v>
@@ -16816,7 +16816,7 @@
         <v>4.8624</v>
       </c>
       <c r="E48" t="n">
-        <v>6.272</v>
+        <v>8.153599999999999</v>
       </c>
       <c r="F48" t="n">
         <v>19.4496</v>
@@ -16884,7 +16884,7 @@
         <v>3.9332</v>
       </c>
       <c r="E50" t="n">
-        <v>2.464</v>
+        <v>3.2032</v>
       </c>
       <c r="F50" t="n">
         <v>15.7328</v>
@@ -16918,7 +16918,7 @@
         <v>16.308</v>
       </c>
       <c r="E51" t="n">
-        <v>1.712</v>
+        <v>2.2256</v>
       </c>
       <c r="F51" t="n">
         <v>65.232</v>
@@ -16952,7 +16952,7 @@
         <v>58.6228</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9232</v>
+        <v>0.4616</v>
       </c>
       <c r="F52" t="n">
         <v>234.4912</v>
@@ -17054,7 +17054,7 @@
         <v>59.4336</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5640000000000001</v>
+        <v>1.128</v>
       </c>
       <c r="F55" t="n">
         <v>237.7344</v>
@@ -17122,7 +17122,7 @@
         <v>59.3764</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4496</v>
+        <v>1.7984</v>
       </c>
       <c r="F57" t="n">
         <v>237.5056</v>
@@ -17190,7 +17190,7 @@
         <v>50.9596</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9584</v>
+        <v>1.4376</v>
       </c>
       <c r="F59" t="n">
         <v>203.8384</v>
@@ -17326,7 +17326,7 @@
         <v>58.27160000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>1.1424</v>
+        <v>2.2848</v>
       </c>
       <c r="F63" t="n">
         <v>233.0864</v>
@@ -17559,7 +17559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ7"/>
+  <dimension ref="A1:BQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17971,43 +17971,43 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
         <v>2</v>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -18016,13 +18016,13 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -18180,7 +18180,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -18192,46 +18192,46 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -18398,7 +18398,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -18410,10 +18410,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -18422,19 +18422,19 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
         <v>1</v>
@@ -18598,13 +18598,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -18613,25 +18613,25 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -18643,10 +18643,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
@@ -18807,19 +18807,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>1</v>
@@ -18828,28 +18828,28 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
         <v>4</v>
       </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -19016,7 +19016,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -19025,141 +19025,1186 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>3</v>
       </c>
-      <c r="Y7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
         <v>3</v>
       </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
         <v>2</v>
       </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19174,7 +20219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ7"/>
+  <dimension ref="A1:BQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19586,58 +20631,58 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>0.125</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>0.125</v>
       </c>
-      <c r="X2" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -19795,7 +20840,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -19807,46 +20852,46 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>0.375</v>
       </c>
       <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
         <v>0.1875</v>
       </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AL3" t="n">
         <v>0.1875</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -20013,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.21875</v>
+        <v>0.4375</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -20025,10 +21070,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.21875</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
         <v>0.21875</v>
@@ -20037,19 +21082,19 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.21875</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.21875</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
         <v>0.21875</v>
@@ -20213,40 +21258,40 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
         <v>0.234375</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.234375</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.234375</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.234375</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.234375</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.9375</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -20258,10 +21303,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
         <v>0.234375</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
@@ -20422,19 +21467,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7265625</v>
+        <v>0.2421875</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.2421875</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.484375</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2421875</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>0.2421875</v>
@@ -20443,28 +21488,28 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
         <v>0.96875</v>
       </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AG6" t="n">
         <v>0.2421875</v>
       </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>0.2421875</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -20631,7 +21676,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.24609375</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -20640,31 +21685,31 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.73828125</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>0.24609375</v>
       </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.73828125</v>
-      </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.24609375</v>
+      </c>
+      <c r="AF7" t="n">
         <v>0.4921875</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
       </c>
       <c r="AG7" t="n">
         <v>0.24609375</v>
@@ -20682,7 +21727,7 @@
         <v>0.24609375</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.24609375</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -20775,6 +21820,1051 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.744140625</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.49609375</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.49609375</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.248046875</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.248046875</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.49609375</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.248046875</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.248046875</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.498046875</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.7470703125</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.2490234375</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.24951171875</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4990234375</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.24951171875</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.4990234375</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.74853515625</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.249755859375</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.749267578125</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.249755859375</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.249755859375</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.249755859375</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.49951171875</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.2498779296875</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.7496337890625</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.499755859375</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.2498779296875</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.2498779296875</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.2498779296875</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20807,7 +22897,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>202</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
@@ -20815,7 +22905,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>108</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4">
@@ -20823,7 +22913,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>810</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5">
@@ -20831,7 +22921,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3168</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="6">
@@ -20839,7 +22929,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3078</v>
+        <v>2560</v>
       </c>
     </row>
   </sheetData>
@@ -20891,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>19.75</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -20913,7 +23003,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -20935,7 +23025,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -20957,7 +23047,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>20.25</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -20979,7 +23069,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>19.75</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -21001,7 +23091,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>19.75</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -21029,7 +23119,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -21051,7 +23141,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -21073,7 +23163,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -21095,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -21117,7 +23207,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -21139,7 +23229,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -21161,7 +23251,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -21183,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -21205,7 +23295,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -21227,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -21249,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -21293,7 +23383,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -21303,7 +23393,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -21325,7 +23415,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -21347,7 +23437,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -21369,7 +23459,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -21391,7 +23481,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -21413,7 +23503,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -21435,7 +23525,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -21457,7 +23547,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -21479,7 +23569,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -21501,7 +23591,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -21523,7 +23613,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -21545,7 +23635,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -21567,7 +23657,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -21589,7 +23679,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -21611,7 +23701,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -21633,7 +23723,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -21655,7 +23745,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -21677,7 +23767,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -21708,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -21730,7 +23820,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -21752,7 +23842,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -21774,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -21796,7 +23886,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -21818,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -21840,7 +23930,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -21862,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -21884,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -21906,7 +23996,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -21928,7 +24018,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -21950,7 +24040,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -21972,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -21988,7 +24078,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -22010,7 +24100,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -22032,7 +24122,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -22054,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -22076,7 +24166,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -22098,7 +24188,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -22120,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -22142,7 +24232,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -22164,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -22186,7 +24276,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -22208,7 +24298,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -22230,7 +24320,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -22252,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -22274,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -22296,7 +24386,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -22318,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -22340,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -22362,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
